--- a/results/I3_N5_M3_T15_C100_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1183.475718237292</v>
+        <v>1474.289011230924</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728903</v>
+        <v>20.71423809492234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.624823803610445</v>
+        <v>5.315063262079851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.624823803610445</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>892.5500000000027</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>264.74</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.069516742254631</v>
+        <v>6.579377207014334</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9.684936737920157</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.61204927984102</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,15 +1087,155 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.5199999999994</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7649999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>134.9399999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.9649999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.1299999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999983</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999982</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999982</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999982</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>148.5550000000009</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>148.9750000000008</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>153.7400000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>151.2100000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>154.4750000000008</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>81.23500000000055</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>72.77000000000055</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>72.55</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>80.62000000000059</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>79.89000000000054</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1528,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>132.5199999999994</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>143.7649999999994</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>134.9399999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>139.9649999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>138.1299999999994</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>148.5550000000009</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>148.9750000000008</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>153.7400000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>151.2100000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>154.4750000000008</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>32.51999999999941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>43.76499999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>34.93999999999943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.96499999999941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>38.12999999999943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>48.55500000000086</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>48.97500000000085</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>53.74000000000086</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>51.21000000000089</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>54.47500000000082</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2153,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2288,6 +2428,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
